--- a/artfynd/A 40274-2022.xlsx
+++ b/artfynd/A 40274-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,6 +1808,805 @@
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112331359</v>
+      </c>
+      <c r="B12" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>577102</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7056694</v>
+      </c>
+      <c r="S12" t="n">
+        <v>25</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>16:14</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>16:14</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112330621</v>
+      </c>
+      <c r="B13" t="n">
+        <v>77388</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>577256</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7056659</v>
+      </c>
+      <c r="S13" t="n">
+        <v>25</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112331811</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Sollefteå (Sollefteå), Ång</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>577158</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7056738</v>
+      </c>
+      <c r="S14" t="n">
+        <v>25</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>16:32</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>16:32</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112331735</v>
+      </c>
+      <c r="B15" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>577158</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7056757</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112331647</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>577150</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7056741</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112330611</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Lill-Svarttjärnen (Lill-Svarttjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>577247</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7056660</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112330627</v>
+      </c>
+      <c r="B18" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>577251</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7056656</v>
+      </c>
+      <c r="S18" t="n">
+        <v>25</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 40274-2022.xlsx
+++ b/artfynd/A 40274-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112331359</v>
+        <v>112330621</v>
       </c>
       <c r="B12" t="n">
-        <v>77636</v>
+        <v>77388</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,21 +1826,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>577102</v>
+        <v>577256</v>
       </c>
       <c r="R12" t="n">
-        <v>7056694</v>
+        <v>7056659</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1911,22 +1911,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112330621</v>
+        <v>112331359</v>
       </c>
       <c r="B13" t="n">
-        <v>77388</v>
+        <v>77636</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,21 +1939,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>577256</v>
+        <v>577102</v>
       </c>
       <c r="R13" t="n">
-        <v>7056659</v>
+        <v>7056694</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2024,12 +2024,12 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -2607,6 +2607,472 @@
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112502528</v>
+      </c>
+      <c r="B19" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>577213</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7056687</v>
+      </c>
+      <c r="S19" t="n">
+        <v>25</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>16:28</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>16:28</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112502371</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>577167</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7056735</v>
+      </c>
+      <c r="S20" t="n">
+        <v>25</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>16:17</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>16:17</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112502199</v>
+      </c>
+      <c r="B21" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>577202</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7056615</v>
+      </c>
+      <c r="S21" t="n">
+        <v>25</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112502131</v>
+      </c>
+      <c r="B22" t="n">
+        <v>89834</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>658</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Sollefteå (Sollefteå), Ång</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>577255</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7056664</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>15:56</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>15:56</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 40274-2022.xlsx
+++ b/artfynd/A 40274-2022.xlsx
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112330621</v>
+        <v>112331647</v>
       </c>
       <c r="B12" t="n">
-        <v>77388</v>
+        <v>96735</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,28 +1822,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1851,10 +1855,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>577256</v>
+        <v>577150</v>
       </c>
       <c r="R12" t="n">
-        <v>7056659</v>
+        <v>7056741</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1886,7 +1890,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1900,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1927,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112331359</v>
+        <v>112330611</v>
       </c>
       <c r="B13" t="n">
-        <v>77636</v>
+        <v>89553</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,35 +1943,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bodhöjden (Bodhöjden), Ång</t>
+          <t>Lill-Svarttjärnen (Lill-Svarttjärnen), Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>577102</v>
+        <v>577247</v>
       </c>
       <c r="R13" t="n">
-        <v>7056694</v>
+        <v>7056660</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1999,7 +2003,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2009,7 +2013,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2036,10 +2040,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112331811</v>
+        <v>112331359</v>
       </c>
       <c r="B14" t="n">
-        <v>96720</v>
+        <v>77650</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2048,43 +2052,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Sollefteå (Sollefteå), Ång</t>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>577158</v>
+        <v>577102</v>
       </c>
       <c r="R14" t="n">
-        <v>7056738</v>
+        <v>7056694</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2153,10 +2153,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112331735</v>
+        <v>112330621</v>
       </c>
       <c r="B15" t="n">
-        <v>96720</v>
+        <v>77402</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2165,25 +2165,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>577158</v>
+        <v>577256</v>
       </c>
       <c r="R15" t="n">
-        <v>7056757</v>
+        <v>7056659</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2254,22 +2254,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112331647</v>
+        <v>112331811</v>
       </c>
       <c r="B16" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2307,14 +2307,14 @@
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bodhöjden (Bodhöjden), Ång</t>
+          <t>Sollefteå (Sollefteå), Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>577150</v>
+        <v>577158</v>
       </c>
       <c r="R16" t="n">
-        <v>7056741</v>
+        <v>7056738</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2371,22 +2371,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112330611</v>
+        <v>112331735</v>
       </c>
       <c r="B17" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2395,39 +2395,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Lill-Svarttjärnen (Lill-Svarttjärnen), Ång</t>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>577247</v>
+        <v>577158</v>
       </c>
       <c r="R17" t="n">
-        <v>7056660</v>
+        <v>7056757</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2499,7 +2499,7 @@
         <v>112330627</v>
       </c>
       <c r="B18" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112502371</v>
+        <v>112502131</v>
       </c>
       <c r="B20" t="n">
-        <v>96735</v>
+        <v>89834</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2739,43 +2739,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bodhöjden (Bodhöjden), Ång</t>
+          <t>Sollefteå (Sollefteå), Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>577167</v>
+        <v>577255</v>
       </c>
       <c r="R20" t="n">
-        <v>7056735</v>
+        <v>7056664</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2807,7 +2803,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>15:56</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2817,7 +2813,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>15:56</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2832,22 +2828,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112502199</v>
+        <v>112502371</v>
       </c>
       <c r="B21" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2856,44 +2852,43 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Bodhöjden (Bodhöjden), Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>577202</v>
+        <v>577167</v>
       </c>
       <c r="R21" t="n">
-        <v>7056615</v>
+        <v>7056735</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2925,7 +2920,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2935,7 +2930,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2962,10 +2957,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112502131</v>
+        <v>112502199</v>
       </c>
       <c r="B22" t="n">
-        <v>89834</v>
+        <v>56575</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2978,35 +2973,40 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>658</v>
+        <v>103021</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sollefteå (Sollefteå), Ång</t>
+          <t>Bodhöjden (Bodhöjden), Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>577255</v>
+        <v>577202</v>
       </c>
       <c r="R22" t="n">
-        <v>7056664</v>
+        <v>7056615</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:56</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:56</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3063,12 +3063,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
